--- a/biology/Histoire de la zoologie et de la botanique/Reginald_Innes_Pocock/Reginald_Innes_Pocock.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Reginald_Innes_Pocock/Reginald_Innes_Pocock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reginald Innes Pocock est un zoologiste britannique, né le 4 mars 1863 à Clifton (près de Bristol) et mort le 9 août 1947 à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Clifton puis à l'école Saint Edward d'Oxford et à l'University College. Il suit les enseignements de Edward Bagnall Poulton (1856-1943), de Conwy Lloyd Morgan (1852-1936) et de William Johnson Sollas (1849-1936). En 1885, il devient assistant au Musée d'histoire naturelle de Londres et est chargé des collections des arachnides et des myriapodes.
 En 1904, il devient directeur du jardin zoologique de Regent's Park de Londres, fonction qu'il occupe jusqu'à sa retraite en 1923. Il travaille alors à nouveau, comme chercheur bénévole, au British Muséum, dans le département des mammifères.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Catalogue of the genus Felis. Londres 1951 p. m.
 Mammalia. Taylor &amp; Francis, Londres 1939–41.
@@ -585,7 +601,9 @@
           <t>Quelques espèces décrites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Carcinoscorpius Pocock, 1902 - Limule
 Civettictis Pocock, 1915
